--- a/public/调证数据模板.xlsx
+++ b/public/调证数据模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17880" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="17880"/>
   </bookViews>
   <sheets>
     <sheet name="otc交易记录" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="虚拟币交易记录" sheetId="4" r:id="rId3"/>
     <sheet name="用户注册信息" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>交易额</t>
   </si>
@@ -49,16 +49,25 @@
     <t>买卖方向</t>
   </si>
   <si>
+    <t>卖/买</t>
+  </si>
+  <si>
     <t>来源地址/目标地址</t>
   </si>
   <si>
     <t>充值方向</t>
   </si>
   <si>
+    <t>充币/提币</t>
+  </si>
+  <si>
     <t>订单类型</t>
   </si>
   <si>
     <t>币对</t>
+  </si>
+  <si>
+    <t>买/卖</t>
   </si>
   <si>
     <t>持仓总量</t>
@@ -96,12 +105,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +119,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -117,38 +127,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,11 +148,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,11 +171,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,6 +211,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -216,30 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,23 +250,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,21 +544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -576,158 +563,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -819,7 +822,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14088745" y="4053840"/>
+          <a:off x="8602980" y="4053840"/>
           <a:ext cx="3729990" cy="3698240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -862,7 +865,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17544415" y="4053840"/>
+          <a:off x="9257030" y="4053840"/>
           <a:ext cx="3729990" cy="3698240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -905,7 +908,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12911455" y="4053840"/>
+          <a:off x="8310245" y="4053840"/>
           <a:ext cx="3729990" cy="3698240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1246,23 +1249,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="29.8365384615385" customWidth="1"/>
-    <col min="2" max="2" width="23.1634615384615" customWidth="1"/>
+    <col min="1" max="1" width="8.97115384615385" customWidth="1"/>
+    <col min="2" max="2" width="5.93269230769231" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="28.6634615384615" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="5" max="5" width="6.73076923076923" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="8" width="20.8365384615385" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.7307692307692" customWidth="1"/>
+    <col min="9" max="9" width="6.56730769230769" customWidth="1"/>
     <col min="10" max="10" width="9.33653846153846" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1296,6 +1299,14 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="6:10">
+      <c r="F2" s="3">
+        <v>36526</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1309,21 +1320,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G141"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="72.1634615384615" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.33653846153846" customWidth="1"/>
+    <col min="1" max="1" width="9.93269230769231" customWidth="1"/>
+    <col min="2" max="2" width="20.1923076923077" customWidth="1"/>
+    <col min="3" max="3" width="8.00961538461539" customWidth="1"/>
+    <col min="4" max="4" width="10.7307692307692" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="28.6634615384615" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="6" max="6" width="6.89423076923077" customWidth="1"/>
+    <col min="7" max="7" width="6.41346153846154" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1331,13 +1342,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1347,6 +1358,11 @@
       </c>
       <c r="G1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1359,22 +1375,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="24.1634615384615" customWidth="1"/>
-    <col min="2" max="3" width="20.8365384615385" customWidth="1"/>
+    <col min="1" max="1" width="7.20192307692308" customWidth="1"/>
+    <col min="2" max="2" width="8.32692307692308" customWidth="1"/>
+    <col min="3" max="3" width="6.88461538461539" customWidth="1"/>
     <col min="4" max="4" width="9.33653846153846" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="6.41346153846154" customWidth="1"/>
     <col min="6" max="6" width="9.33653846153846" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="7" max="7" width="6.39423076923077" customWidth="1"/>
+    <col min="8" max="8" width="8.80769230769231" customWidth="1"/>
+    <col min="9" max="9" width="9.13461538461539" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
@@ -1388,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -1397,13 +1414,18 @@
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="6:6">
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1418,7 +1440,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1429,37 +1451,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="2:2">
